--- a/classification/droptc/sentence/neo-bert/freeze/52680723/prediction.xlsx
+++ b/classification/droptc/sentence/neo-bert/freeze/52680723/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.903897762298584</v>
+        <v>0.7564961314201355</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4504613280296326</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5634430646896362</v>
+        <v>0.6939245462417603</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5118524432182312</v>
+        <v>0.699749231338501</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9590628147125244</v>
+        <v>0.9981313347816467</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6814073920249939</v>
+        <v>0.9978854060173035</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9381426572799683</v>
+        <v>0.9906807541847229</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8137333393096924</v>
+        <v>0.984638512134552</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7370211482048035</v>
+        <v>0.9906807541847229</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +730,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="E11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5243003368377686</v>
+        <v>0.992176353931427</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9496600031852722</v>
+        <v>0.989965558052063</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9664404988288879</v>
+        <v>0.9903910160064697</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3905783295631409</v>
+        <v>0.9787698984146118</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="E15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5075344443321228</v>
+        <v>0.6120939254760742</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8074128031730652</v>
+        <v>0.9255399107933044</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.90240478515625</v>
+        <v>0.9773615002632141</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8031191825866699</v>
+        <v>0.7811898589134216</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5118524432182312</v>
+        <v>0.9912201762199402</v>
       </c>
     </row>
     <row r="20">
@@ -987,14 +987,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4600204527378082</v>
+        <v>0.8424435257911682</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8366237282752991</v>
+        <v>0.9969513416290283</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9363857507705688</v>
+        <v>0.990767776966095</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7558208703994751</v>
+        <v>0.9894885420799255</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.897713840007782</v>
+        <v>0.9967895150184631</v>
       </c>
     </row>
     <row r="25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1131,10 +1131,10 @@
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7647355198860168</v>
+        <v>0.4860362112522125</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6551353335380554</v>
+        <v>0.7187269330024719</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.9972907900810242</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6604793667793274</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6128917336463928</v>
+        <v>0.9952301979064941</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.6992288827896118</v>
+        <v>0.9851873517036438</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E31" t="b">
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5239565968513489</v>
+        <v>0.97516930103302</v>
       </c>
     </row>
     <row r="32">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E32" t="b">
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7335564494132996</v>
+        <v>0.8361631035804749</v>
       </c>
     </row>
     <row r="33">
@@ -1351,14 +1351,14 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4977859854698181</v>
+        <v>0.9637899398803711</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8314357399940491</v>
+        <v>0.9789835810661316</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.7033702731132507</v>
+        <v>0.997083842754364</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.7747712135314941</v>
+        <v>0.995166540145874</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.7603931427001953</v>
+        <v>0.9474959373474121</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9343779683113098</v>
+        <v>0.9937325119972229</v>
       </c>
     </row>
     <row r="39">
@@ -1514,7 +1514,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1523,10 +1523,10 @@
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9549568295478821</v>
+        <v>0.9693741202354431</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.4253374934196472</v>
+        <v>0.3349280953407288</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6027446389198303</v>
+        <v>0.9703851342201233</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.948331356048584</v>
+        <v>0.9856491684913635</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9553108811378479</v>
+        <v>0.987532913684845</v>
       </c>
     </row>
     <row r="44">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="E44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.5923128128051758</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9094705581665039</v>
+        <v>0.985090970993042</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.968220591545105</v>
+        <v>0.9674927592277527</v>
       </c>
     </row>
     <row r="47">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.5038946866989136</v>
+        <v>0.8569043874740601</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9103017449378967</v>
+        <v>0.9941616654396057</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8070228099822998</v>
+        <v>0.9975875616073608</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9163110852241516</v>
+        <v>0.9989979863166809</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6503627896308899</v>
+        <v>0.4784712195396423</v>
       </c>
     </row>
     <row r="52">
@@ -1878,19 +1878,19 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E52" t="b">
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.679294764995575</v>
+        <v>0.7845262289047241</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5119390487670898</v>
+        <v>0.9989979863166809</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9478740692138672</v>
+        <v>0.9089005589485168</v>
       </c>
     </row>
     <row r="55">
@@ -1967,14 +1967,14 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3858786523342133</v>
+        <v>0.9996709823608398</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.695975661277771</v>
+        <v>0.9993218183517456</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.4861017167568207</v>
+        <v>0.9848148822784424</v>
       </c>
     </row>
     <row r="58">
@@ -2051,14 +2051,14 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.4339257776737213</v>
+        <v>0.9744198322296143</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8536112904548645</v>
+        <v>0.9936532974243164</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8907231688499451</v>
+        <v>0.9721810221672058</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8798348903656006</v>
+        <v>0.9669140577316284</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4328122735023499</v>
+        <v>0.9921527504920959</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4018080532550812</v>
+        <v>0.9038769602775574</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8517270684242249</v>
+        <v>0.7776458859443665</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8485990762710571</v>
+        <v>0.9974024891853333</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9221499562263489</v>
+        <v>0.9974024891853333</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8826388120651245</v>
+        <v>0.8067193031311035</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.4945585429668427</v>
+        <v>0.9974024891853333</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9335509538650513</v>
+        <v>0.9103078842163086</v>
       </c>
     </row>
     <row r="70">
@@ -2382,19 +2382,19 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E70" t="b">
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4871347844600677</v>
+        <v>0.9516072273254395</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8412964344024658</v>
+        <v>0.9744133949279785</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.6691796183586121</v>
+        <v>0.9951760768890381</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.5945767760276794</v>
+        <v>0.9830275774002075</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9506946206092834</v>
+        <v>0.8629698753356934</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8451820015907288</v>
+        <v>0.8962158560752869</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8790060877799988</v>
+        <v>0.9830275774002075</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4630506634712219</v>
+        <v>0.9563484787940979</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8646204471588135</v>
+        <v>0.9830275774002075</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.6627088785171509</v>
+        <v>0.9990423321723938</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.7335564494132996</v>
+        <v>0.9788665175437927</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6627088785171509</v>
+        <v>0.8742165565490723</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7335564494132996</v>
+        <v>0.9788665175437927</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.5708024501800537</v>
+        <v>0.4125132858753204</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8342261910438538</v>
+        <v>0.4125132858753204</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.423769474029541</v>
+        <v>0.9998525381088257</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9324573278427124</v>
+        <v>0.9970347881317139</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9852951765060425</v>
+        <v>0.94387286901474</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.5908592343330383</v>
+        <v>0.9911323189735413</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.9351186156272888</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7527675032615662</v>
+        <v>0.9974672794342041</v>
       </c>
     </row>
     <row r="91">
@@ -2970,19 +2970,19 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E91" t="b">
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.3829855024814606</v>
+        <v>0.9971848130226135</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.5298060774803162</v>
+        <v>0.9966277480125427</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.3602938055992126</v>
+        <v>0.9966591596603394</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.6720370054244995</v>
+        <v>0.9966224431991577</v>
       </c>
     </row>
     <row r="95">
@@ -3082,7 +3082,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="E95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7343846559524536</v>
+        <v>0.9966666102409363</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6257933378219604</v>
+        <v>0.7251854538917542</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.9257441163063049</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.6661781072616577</v>
+        <v>0.9984709620475769</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8137333393096924</v>
+        <v>0.7654654979705811</v>
       </c>
     </row>
     <row r="100">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.4767242670059204</v>
+        <v>0.987616240978241</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3829855024814606</v>
+        <v>0.9501584768295288</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8673983812332153</v>
+        <v>0.8188502192497253</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.8876685500144958</v>
+        <v>0.8079637289047241</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6939553022384644</v>
+        <v>0.8442320823669434</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5651714205741882</v>
+        <v>0.9927270412445068</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.8512362241744995</v>
+        <v>0.9657859206199646</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7621691823005676</v>
+        <v>0.9367161393165588</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.8475907444953918</v>
+        <v>0.9568638205528259</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3096057772636414</v>
+        <v>0.9089590907096863</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.870012104511261</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9554277658462524</v>
+        <v>0.9544438719749451</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3771442472934723</v>
+        <v>0.9514251351356506</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.423769474029541</v>
+        <v>0.9566481113433838</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.9627116322517395</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.7479650974273682</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8339601755142212</v>
+        <v>0.9735271334648132</v>
       </c>
     </row>
     <row r="117">
@@ -3698,19 +3698,19 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E117" t="b">
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.423769474029541</v>
+        <v>0.9963739514350891</v>
       </c>
     </row>
     <row r="118">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3735,10 +3735,10 @@
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.8752244710922241</v>
+        <v>0.9442569613456726</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.5859816670417786</v>
+        <v>0.4601703882217407</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5745443105697632</v>
+        <v>0.9821563363075256</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.8242281079292297</v>
+        <v>0.9986293315887451</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9706522822380066</v>
+        <v>0.9821563363075256</v>
       </c>
     </row>
     <row r="124">
@@ -3894,19 +3894,19 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E124" t="b">
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5459766983985901</v>
+        <v>0.9986293315887451</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.3745666742324829</v>
+        <v>0.9821563363075256</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.5847055315971375</v>
+        <v>0.9998513460159302</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8155805468559265</v>
+        <v>0.6194933652877808</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.7889718413352966</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="129">
@@ -4039,14 +4039,14 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.770646333694458</v>
+        <v>0.5966943502426147</v>
       </c>
     </row>
     <row r="130">
@@ -4067,14 +4067,14 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.7862752079963684</v>
+        <v>0.6559199094772339</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.8246433138847351</v>
+        <v>0.9996629953384399</v>
       </c>
     </row>
     <row r="132">
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -4127,10 +4127,10 @@
         </is>
       </c>
       <c r="E132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.6627088785171509</v>
+        <v>0.5127022862434387</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9104070663452148</v>
+        <v>0.9843409657478333</v>
       </c>
     </row>
     <row r="134">
@@ -4174,19 +4174,19 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.4108076989650726</v>
+        <v>0.9045853614807129</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.4944368600845337</v>
+        <v>0.852799117565155</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.8506844043731689</v>
+        <v>0.9251555204391479</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.8287983536720276</v>
+        <v>0.9947552680969238</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5117297172546387</v>
+        <v>0.8911733627319336</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9429323077201843</v>
+        <v>0.997767448425293</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6346703171730042</v>
+        <v>0.9936823844909668</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.4518648087978363</v>
+        <v>0.8944621682167053</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6060689091682434</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9627842307090759</v>
+        <v>0.6096956133842468</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.5925160050392151</v>
+        <v>0.9984809756278992</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9025500416755676</v>
+        <v>0.6096956133842468</v>
       </c>
     </row>
     <row r="146">
@@ -4510,19 +4510,19 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.8219566941261292</v>
+        <v>0.9957874417304993</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.8823708891868591</v>
+        <v>0.9103078842163086</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.897713840007782</v>
+        <v>0.9661626815795898</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4003092646598816</v>
+        <v>0.890883207321167</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.8302361369132996</v>
+        <v>0.7869364023208618</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5103430151939392</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8137333393096924</v>
+        <v>0.8817593455314636</v>
       </c>
     </row>
     <row r="153">
@@ -4706,19 +4706,19 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E153" t="b">
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5968068838119507</v>
+        <v>0.9981291890144348</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.904059886932373</v>
+        <v>0.9643901586532593</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.4970801770687103</v>
+        <v>0.9873725771903992</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9004700779914856</v>
+        <v>0.9642400741577148</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.8362738490104675</v>
+        <v>0.9903377294540405</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.719817042350769</v>
+        <v>0.981028139591217</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4935974776744843</v>
+        <v>0.9968016147613525</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.8201087713241577</v>
+        <v>0.7952221035957336</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9025500416755676</v>
+        <v>0.994568943977356</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9344921708106995</v>
+        <v>0.8950501680374146</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.7227301597595215</v>
+        <v>0.9288462996482849</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.7905566692352295</v>
+        <v>0.9589576721191406</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9278348684310913</v>
+        <v>0.9962326884269714</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.8120445609092712</v>
+        <v>0.9675925970077515</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9487186074256897</v>
+        <v>0.936066746711731</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.7111933827400208</v>
+        <v>0.5506767630577087</v>
       </c>
     </row>
     <row r="169">
@@ -5154,19 +5154,19 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E169" t="b">
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.3745666742324829</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.6794683933258057</v>
+        <v>0.936066746711731</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.8627617955207825</v>
+        <v>0.897574245929718</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9331591725349426</v>
+        <v>0.9975091218948364</v>
       </c>
     </row>
     <row r="173">
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.7017243504524231</v>
+        <v>0.9868489503860474</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9073264002799988</v>
+        <v>0.9957893490791321</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.8896241784095764</v>
+        <v>0.9868489503860474</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.4384326934814453</v>
+        <v>0.9868489503860474</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.6987953186035156</v>
+        <v>0.9957893490791321</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.5119390487670898</v>
+        <v>0.993178129196167</v>
       </c>
     </row>
     <row r="179">
@@ -5434,19 +5434,19 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E179" t="b">
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.5713868141174316</v>
+        <v>0.9686868190765381</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.7716220617294312</v>
+        <v>0.9822085499763489</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.723425567150116</v>
+        <v>0.9638209342956543</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9487186074256897</v>
+        <v>0.9832920432090759</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9101154804229736</v>
+        <v>0.981165885925293</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.8162837028503418</v>
+        <v>0.9965780377388</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.816081702709198</v>
+        <v>0.9974906444549561</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.332375705242157</v>
+        <v>0.979744553565979</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.8412951827049255</v>
+        <v>0.9610874652862549</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.827665388584137</v>
+        <v>0.9947671890258789</v>
       </c>
     </row>
     <row r="189">
@@ -5714,7 +5714,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5723,10 +5723,10 @@
         </is>
       </c>
       <c r="E189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.6002817153930664</v>
+        <v>0.997729480266571</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.5335797667503357</v>
+        <v>0.9996076226234436</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.4586955606937408</v>
+        <v>0.7368684411048889</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.6898433566093445</v>
+        <v>0.9954280853271484</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9221499562263489</v>
+        <v>0.9660032391548157</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.7804493308067322</v>
+        <v>0.8983706831932068</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9238104224205017</v>
+        <v>0.8512006402015686</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.8536112904548645</v>
+        <v>0.9988048076629639</v>
       </c>
     </row>
     <row r="197">
@@ -5938,19 +5938,19 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E197" t="b">
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.4588257670402527</v>
+        <v>0.9982660412788391</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.6223417520523071</v>
+        <v>0.9980452060699463</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5307081341743469</v>
+        <v>0.9303944110870361</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.3992528021335602</v>
+        <v>0.7201454043388367</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5631682276725769</v>
+        <v>0.9983367919921875</v>
       </c>
     </row>
     <row r="202">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -6087,10 +6087,10 @@
         </is>
       </c>
       <c r="E202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7866007685661316</v>
+        <v>0.7277273535728455</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9440984129905701</v>
+        <v>0.8676065802574158</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.4743609130382538</v>
+        <v>0.9735185503959656</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.8450259566307068</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.4616487920284271</v>
+        <v>0.998690664768219</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.7635738253593445</v>
+        <v>0.9670369029045105</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9247517585754395</v>
+        <v>0.9628593921661377</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5361065268516541</v>
+        <v>0.7167911529541016</v>
       </c>
     </row>
     <row r="210">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -6311,10 +6311,10 @@
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.816457211971283</v>
+        <v>0.992388904094696</v>
       </c>
     </row>
   </sheetData>
